--- a/New Integration Documentation/Routes/Development Integration Checklist.xlsx
+++ b/New Integration Documentation/Routes/Development Integration Checklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YaseenH\Desktop\Integration\New Integration Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Projects\IntegrationDocumentation\New Integration Documentation\Routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Configure reader</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Map fields</t>
   </si>
@@ -84,6 +81,21 @@
   </si>
   <si>
     <t>Apply Logos (TripSheets and notifications)</t>
+  </si>
+  <si>
+    <t>Verify Address Info (Adhoc, multiple addresses)</t>
+  </si>
+  <si>
+    <t>Create table for site data (more than one branch uses same agent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure reader/ scripts </t>
+  </si>
+  <si>
+    <t>Set up notifications if needed (email etc)</t>
+  </si>
+  <si>
+    <t>Create Relevant action ID's (del, col,ibt, ctc, service etc)</t>
   </si>
 </sst>
 </file>
@@ -512,12 +524,60 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,13 +809,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>962025</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -816,13 +876,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>962025</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -834,140 +894,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1038"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1039"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1028,13 +954,80 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1040"/>
+                  <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>962025</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1095,13 +1088,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1041"/>
+                  <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1150,25 +1143,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:colOff>962025</xdr:colOff>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1042"/>
+                  <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1218,24 +1211,24 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>971550</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1043"/>
+                  <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1284,14 +1277,81 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>971550</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>962025</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1553,13 +1613,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1620,13 +1680,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1687,13 +1747,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1754,13 +1814,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1821,13 +1881,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1839,140 +1899,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1057"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1058"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2033,13 +1959,13 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1060"/>
+                  <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2089,24 +2015,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1062"/>
+                  <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2154,26 +2080,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1063"/>
+                  <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2223,24 +2149,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1064"/>
+                  <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2289,25 +2215,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:colOff>971550</xdr:colOff>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1065"/>
+                  <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C5DABA-B5A8-4383-9393-D5F21A77F060}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2357,24 +2283,24 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>504825</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1066"/>
+                  <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9E6CAD-559D-495D-8AFD-96D52B95F4F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2415,6 +2341,884 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>962025</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2068A154-9FFA-4036-A953-4D56922592C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5B24E5-049D-42C2-90C6-05C4B96474CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A74224C-D18E-41C4-B23B-1B1EC6E283F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48D577E-5264-4E08-A92C-8DD655330A07}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58656933-8C49-44C0-A7CC-DF79E4706700}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C41737B-6CAC-46DF-B9A3-6A4E81543E37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C527D500-C96F-4A4F-A6DA-20B8FF20BDD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69F19CB-DE3C-4F7D-8103-91BF6D98CC2F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546473C3-4098-4080-AD7A-C8DBC5A70439}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BBE8BD-EC44-4DCB-A816-9900297160A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CEC41A-E23E-4DC1-9735-474B96A4B297}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="295275" cy="180975"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD8C3E3-A9E2-44CC-9EFD-FC074805B2FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2718,16 +3522,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
@@ -2742,21 +3546,21 @@
     </row>
     <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2768,114 +3572,142 @@
     </row>
     <row r="7" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
     </row>
-    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>7</v>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>17</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
     </row>
-    <row r="22" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
@@ -2965,13 +3797,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>10</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>962025</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2987,13 +3819,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>962025</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3004,50 +3836,6 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1038" r:id="rId9" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>962025</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1039" r:id="rId10" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>962025</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1040" r:id="rId11" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3069,7 +3857,29 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId12" name="Check Box 17">
+            <control shapeId="1039" r:id="rId10" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId11" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3091,19 +3901,41 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId12" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="1042" r:id="rId13" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>676275</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>971550</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3119,13 +3951,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>676275</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>971550</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3141,13 +3973,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>962025</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3229,28 +4061,6 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId20" name="Check Box 26">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -3267,19 +4077,41 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId20" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="1051" r:id="rId21" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3295,13 +4127,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3317,13 +4149,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3334,50 +4166,6 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1057" r:id="rId24" name="Check Box 33">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId25" name="Check Box 34">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId26" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3399,19 +4187,63 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId25" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId26" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="1062" r:id="rId27" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3427,13 +4259,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>676275</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>971550</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3444,6 +4276,94 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="1064" r:id="rId29" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId30" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId31" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId32" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>676275</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId33" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3465,19 +4385,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId30" name="Check Box 41">
+            <control shapeId="1069" r:id="rId34" name="Check Box 45">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>666750</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>962025</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3487,20 +4407,196 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId31" name="Check Box 42">
+            <control shapeId="1070" r:id="rId35" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>676275</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId36" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>504825</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>800100</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId37" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId38" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId39" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>676275</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId40" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>657225</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>952500</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId41" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId42" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId43" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>504825</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
